--- a/Lesson3/Portmone_Iryna_Lukovets.xlsx
+++ b/Lesson3/Portmone_Iryna_Lukovets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="457">
   <si>
     <t>Traceability matrix</t>
   </si>
@@ -127,9 +127,6 @@
 </t>
   </si>
   <si>
-    <t>1.1. Checking of the presence/disposition/GIU of the button "Sign up"</t>
-  </si>
-  <si>
     <t>1.2. Check that the button is working correctly</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
   </si>
   <si>
     <t>1.3.11</t>
-  </si>
-  <si>
-    <t>2.1. Checking of the presence/disposition/GIU of the button "Log in"</t>
   </si>
   <si>
     <t>Check the presence of the button "Log in" on the main page of the site</t>
@@ -304,9 +298,6 @@
   </si>
   <si>
     <t>Check the presence of the button "Recover password" on the "Forgot yout password" form</t>
-  </si>
-  <si>
-    <t>3.1. Checking of the presence/disposition/GIU of the menu items</t>
   </si>
   <si>
     <t>Check the presence of the menu items on the main page of the site</t>
@@ -1296,6 +1287,150 @@
   </si>
   <si>
     <t>7.6.4</t>
+  </si>
+  <si>
+    <t>8. Site's header                                                                                There is site’s header at the top part of the main screen. Also this header is visible and accessible from all pages of the site</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>8.1.2</t>
+  </si>
+  <si>
+    <t>8.1.3</t>
+  </si>
+  <si>
+    <t>Check the presence of the header of the site</t>
+  </si>
+  <si>
+    <t>Check the dispodition of the header of the site</t>
+  </si>
+  <si>
+    <t>8.2.1</t>
+  </si>
+  <si>
+    <t>Check the presence all required items at the header</t>
+  </si>
+  <si>
+    <t>8.2.2</t>
+  </si>
+  <si>
+    <t>Check the stacking order of the required items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2. Checking the content of the header </t>
+  </si>
+  <si>
+    <t>8.3. Checking the correctness working of the header</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>Check the header's visibility from all pages of the site</t>
+  </si>
+  <si>
+    <t>8.3.2</t>
+  </si>
+  <si>
+    <t>Check the header's accessibility from all pages of the site</t>
+  </si>
+  <si>
+    <t>9. Site's footer                                                                                   There is site’s footer at the bottom part of the main screen. Also this footer is visible and accessible from all pages of the site</t>
+  </si>
+  <si>
+    <t>1.1. Checking of the presence/disposition/GUI of the button "Sign up"</t>
+  </si>
+  <si>
+    <t>2.1. Checking of the presence/disposition/GUI of the button "Log in"</t>
+  </si>
+  <si>
+    <t>3.1. Checking of the presence/disposition/GUI of the menu items</t>
+  </si>
+  <si>
+    <t>8.1. Checking the presence/disposition/GUI of the header</t>
+  </si>
+  <si>
+    <t>9.1. Checking the presence/dsposition/CUI of the footer</t>
+  </si>
+  <si>
+    <t>9.1.1</t>
+  </si>
+  <si>
+    <t>Check the presence of the footer of the site</t>
+  </si>
+  <si>
+    <t>9.1.2</t>
+  </si>
+  <si>
+    <t>Check the disposition of the footer of the site</t>
+  </si>
+  <si>
+    <t>9.1.3</t>
+  </si>
+  <si>
+    <t>Check the background's color of the footer of the site</t>
+  </si>
+  <si>
+    <t>Check the background's color of the header of the site</t>
+  </si>
+  <si>
+    <t>9.2. Checking the content of the footer</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>Check the presence all required links at the footer</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>Check the stacking order of the required links</t>
+  </si>
+  <si>
+    <t>9.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4. Checking the correctness working of the footer's links </t>
+  </si>
+  <si>
+    <t>9.3. Checking the correctness working of the footer</t>
+  </si>
+  <si>
+    <t>Check the footer's visibility from all pages of the site</t>
+  </si>
+  <si>
+    <t>9.3.2</t>
+  </si>
+  <si>
+    <t>Check the footer's accessibility from all pages of the site</t>
+  </si>
+  <si>
+    <t>9.4.1</t>
+  </si>
+  <si>
+    <t>Check that all required links are led to the right information</t>
+  </si>
+  <si>
+    <t>10. Cross-browser compatibility                                             All options of the site are accessible from any browser</t>
+  </si>
+  <si>
+    <t>10.1.1</t>
+  </si>
+  <si>
+    <t>10.1. Checking the site accessibility and correctness working from the different browsers</t>
+  </si>
+  <si>
+    <t>10.1.2</t>
+  </si>
+  <si>
+    <t>Check the site accessibility from the different browsers - Google Chrome, Mozilla Firefox, Internet Explorer, Opera, Safari, Yandex Browser</t>
+  </si>
+  <si>
+    <t>Check the correctness working of the site from the different browsers - Google Chrome, Mozilla Firefox, Internet Explorer, Opera, Safari, Yandex Browser</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1746,13 +1881,94 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1761,89 +1977,35 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2126,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F246"/>
+  <dimension ref="C2:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C111" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView tabSelected="1" topLeftCell="C218" workbookViewId="0">
+      <selection activeCell="D232" sqref="D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,20 +2303,20 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -2169,2338 +2331,2428 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
+      <c r="D6" s="30" t="s">
+        <v>426</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="29"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="29"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="29"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="29"/>
-      <c r="D10" s="11" t="s">
-        <v>26</v>
+      <c r="C10" s="25"/>
+      <c r="D10" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="29"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="29"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="29"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="29"/>
-      <c r="D14" s="11" t="s">
-        <v>27</v>
+      <c r="C14" s="25"/>
+      <c r="D14" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="29"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="29"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="29"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="29"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="29"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="29"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="29"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="29"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="29"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="38" t="s">
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="39" t="s">
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F27" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="4" t="s">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="4" t="s">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="31"/>
+      <c r="D29" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="13"/>
-      <c r="D29" s="11" t="s">
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="4" t="s">
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="4" t="s">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="31"/>
+      <c r="D33" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="13"/>
-      <c r="D33" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="4" t="s">
+      <c r="F38" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="4" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="4" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="37" t="s">
+    </row>
+    <row r="43" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="28"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="13" t="s">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="28"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="32" t="s">
+    </row>
+    <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C46" s="28"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="30"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="4" t="s">
+      <c r="F46" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="30"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="4" t="s">
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="28"/>
+      <c r="D47" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="30"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="5" t="s">
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="28"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="30"/>
-      <c r="D47" s="11" t="s">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="28"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="4" t="s">
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="28"/>
+      <c r="D50" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="30"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="4" t="s">
+      <c r="E50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="30"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="4" t="s">
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="28"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="30"/>
-      <c r="D50" s="11" t="s">
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="28"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="4" t="s">
+    </row>
+    <row r="53" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="29"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F53" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="30"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="4" t="s">
+    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="30"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="31"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36" t="s">
+      <c r="E54" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="39"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F53" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="20" t="s">
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="39"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="39"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="21"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="4" t="s">
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="39"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F58" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="39"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="21"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="5" t="s">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="39"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="21"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="5" t="s">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="39"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="21"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="21"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="4" t="s">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="39"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F62" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="21"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="6" t="s">
+    <row r="63" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="39"/>
+      <c r="D63" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="21"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="6" t="s">
+      <c r="E63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="21"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="6" t="s">
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="39"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="21"/>
-      <c r="D63" s="17" t="s">
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="39"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="6" t="s">
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="39"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="21"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="6" t="s">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="39"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="21"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="6" t="s">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="39"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="21"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="6" t="s">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="39"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="21"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="6" t="s">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="39"/>
+      <c r="D70" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="21"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="6" t="s">
+      <c r="F70" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="39"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="21"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="21"/>
-      <c r="D70" s="17" t="s">
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="39"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="39"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F73" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F70" s="7" t="s">
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="39"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="21"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="21"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="6" t="s">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="39"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F75" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="39"/>
+      <c r="D76" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="21"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="21"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="6" t="s">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="39"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="39"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="39"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="39"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="39"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="39"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="21"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="21"/>
-      <c r="D76" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="21"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="21"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="21"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F79" s="7" t="s">
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="39"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="21"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F80" s="7" t="s">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="39"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="21"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F81" s="7" t="s">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="39"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="21"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="21"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="6" t="s">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="39"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="21"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="6" t="s">
+      <c r="F86" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="39"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="21"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="21"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="21"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="22"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36" t="s">
+      <c r="C88" s="40"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F89" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F88" s="37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="14" t="s">
+    </row>
+    <row r="90" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="42"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="38" t="s">
+    </row>
+    <row r="91" spans="3:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="42"/>
+      <c r="D91" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E89" s="41" t="s">
+    </row>
+    <row r="92" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="42"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="42"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F89" s="42" t="s">
+    </row>
+    <row r="94" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="42"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="42"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="42"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="42"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="42"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="42"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="42"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="42"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="42"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="15"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="15"/>
-      <c r="D91" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="15"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="15"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="15"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="15"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="15"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="15"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="15"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="15"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F99" s="7" t="s">
+    <row r="103" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="42"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="42"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="15"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F100" s="7" t="s">
+    <row r="105" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="42"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="15"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F101" s="7" t="s">
+    <row r="106" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="42"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="15"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="15"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="15"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="6" t="s">
+    <row r="107" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C107" s="42"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="15"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="6" t="s">
+    <row r="108" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="42"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="15"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C107" s="15"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="15"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="109" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="15"/>
-      <c r="D109" s="13"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="31"/>
       <c r="E109" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="42"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="42"/>
+      <c r="D111" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="42"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F112" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="15"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="6" t="s">
+    <row r="113" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C113" s="42"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="15"/>
-      <c r="D111" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E111" s="6" t="s">
+    <row r="114" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="42"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F114" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C115" s="42"/>
+      <c r="D115" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="42"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="15"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C113" s="15"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="15"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="6" t="s">
+    <row r="117" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C117" s="42"/>
+      <c r="D117" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C115" s="15"/>
-      <c r="D115" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="E117" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="42"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="42"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="15"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C117" s="15"/>
-      <c r="D117" s="11" t="s">
+    <row r="120" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="42"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="42"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="42"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="42"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="42"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="42"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="42"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="42"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="42"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="42"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="42"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C131" s="42"/>
+      <c r="D131" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="42"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F117" s="7" t="s">
+    </row>
+    <row r="133" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="42"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="42"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="42"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="42"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="42"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="15"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="15"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="120" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="15"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="15"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="122" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="15"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="123" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="15"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="124" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="15"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="125" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="15"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="126" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="15"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="127" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="15"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="128" spans="3:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="15"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="129" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="15"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="130" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="15"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="131" spans="3:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="C131" s="15"/>
-      <c r="D131" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F131" s="7" t="s">
+    <row r="138" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="42"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="42"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="15"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="15"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="134" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="15"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="15"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="136" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="15"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F136" s="7" t="s">
+    <row r="140" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="42"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="15"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F137" s="7" t="s">
+    <row r="141" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="42"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="138" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="15"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="139" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="15"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="6" t="s">
+    <row r="142" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="42"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F142" s="7" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="140" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="15"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="141" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="15"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="142" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="15"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="143" spans="3:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C143" s="43"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="36" t="s">
+      <c r="D143" s="33"/>
+      <c r="E143" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D144" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="F143" s="37" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="38" t="s">
+    </row>
+    <row r="145" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F149" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D144" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="E144" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="F144" s="40" t="s">
+    </row>
+    <row r="150" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F145" s="5" t="s">
+    <row r="151" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="31"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C154" s="31"/>
+      <c r="D154" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F156" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="147" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="149" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="150" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F150" s="5" t="s">
+    <row r="157" spans="3:6" s="8" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" s="14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="151" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="153" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="13"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="154" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C154" s="13"/>
-      <c r="D154" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="155" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="6" t="s">
+    <row r="158" spans="3:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="F155" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="156" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="6" t="s">
+      <c r="D158" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F158" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="F156" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="157" spans="3:6" s="8" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="F157" s="37" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="158" spans="3:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C158" s="38" t="s">
+    </row>
+    <row r="159" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="31"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F159" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D158" s="38" t="s">
+    </row>
+    <row r="160" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="31"/>
+      <c r="D160" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="E158" s="41" t="s">
+      <c r="E160" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F158" s="42" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="159" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="13"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="6" t="s">
+      <c r="F161" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="160" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C160" s="13"/>
-      <c r="D160" s="11" t="s">
+      <c r="F162" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F163" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E160" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="F160" s="7" t="s">
+    </row>
+    <row r="164" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F167" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="162" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="163" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="164" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F164" s="7" t="s">
+    <row r="168" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F172" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="165" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="166" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="167" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="168" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="169" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="F169" s="7" t="s">
+    <row r="173" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="170" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F170" s="7" t="s">
+    <row r="175" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F176" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="171" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F171" s="7" t="s">
+    <row r="177" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F177" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="172" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="173" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F174" s="7" t="s">
+    <row r="178" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="175" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="176" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="6" t="s">
+    <row r="179" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F179" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="177" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="6" t="s">
+    <row r="180" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F180" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="31"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="31"/>
+      <c r="D182" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F182" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="178" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="F178" s="7" t="s">
+    <row r="183" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F185" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F179" s="7" t="s">
+    <row r="186" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F187" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="180" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="181" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="13"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="182" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C182" s="13"/>
-      <c r="D182" s="11" t="s">
+    <row r="188" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="190" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="192" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="193" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="194" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="195" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="197" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C200" s="31"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="201" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C202" s="31"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="203" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C203" s="31"/>
+      <c r="D203" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C204" s="31"/>
+      <c r="D204" s="31"/>
+      <c r="E204" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C205" s="31"/>
+      <c r="D205" s="31"/>
+      <c r="E205" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="206" spans="3:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C206" s="31"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="207" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C207" s="31"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="208" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C208" s="31"/>
+      <c r="D208" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="209" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C209" s="31"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F209" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E182" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="183" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="184" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="185" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="186" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="187" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="188" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="189" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="190" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="191" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="192" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="193" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="194" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="195" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="196" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="197" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="198" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="199" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="200" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="201" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="202" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C202" s="13"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="203" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C203" s="13"/>
-      <c r="D203" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="204" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="205" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="206" spans="3:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="207" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C207" s="13"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="6" t="s">
+    </row>
+    <row r="210" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C210" s="31"/>
+      <c r="D210" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E210" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="F207" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="208" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C208" s="13"/>
-      <c r="D208" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E208" s="6" t="s">
+      <c r="F210" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="209" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C209" s="13"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="210" spans="3:6" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C210" s="13"/>
-      <c r="D210" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="211" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="212" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
       <c r="E212" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="213" spans="3:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="214" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C214" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="D214" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="E214" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="F212" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="213" spans="3:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C213" s="35"/>
-      <c r="D213" s="35"/>
-      <c r="E213" s="36" t="s">
+      <c r="F214" s="48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C215" s="46"/>
+      <c r="D215" s="46"/>
+      <c r="E215" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="F213" s="37" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-      <c r="F214" s="9"/>
-    </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9"/>
+      <c r="F215" s="49" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
-      <c r="F216" s="9"/>
+      <c r="C216" s="46"/>
+      <c r="D216" s="46"/>
+      <c r="E216" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="F216" s="49" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
+      <c r="C217" s="46"/>
+      <c r="D217" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="E217" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="F217" s="49" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="46"/>
+      <c r="E218" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="F218" s="49" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
-    </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
-    </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
+      <c r="C219" s="46"/>
+      <c r="D219" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="E219" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="F219" s="49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="F220" s="52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C221" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="D221" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="E221" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="F221" s="48" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
+      <c r="C222" s="46"/>
+      <c r="D222" s="46"/>
+      <c r="E222" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="F222" s="49" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
+      <c r="C223" s="46"/>
+      <c r="D223" s="46"/>
+      <c r="E223" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="F223" s="49" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C224" s="9"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
+      <c r="C224" s="46"/>
+      <c r="D224" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="E224" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="F224" s="49" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
-      <c r="F225" s="9"/>
+      <c r="C225" s="46"/>
+      <c r="D225" s="46"/>
+      <c r="E225" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="F225" s="49" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="9"/>
+      <c r="C226" s="46"/>
+      <c r="D226" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="E226" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="F226" s="49" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
-      <c r="F227" s="9"/>
-    </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C228" s="9"/>
-      <c r="D228" s="9"/>
-      <c r="E228" s="9"/>
-      <c r="F228" s="9"/>
-    </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
-      <c r="F229" s="9"/>
-    </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
-      <c r="F230" s="9"/>
+      <c r="C227" s="46"/>
+      <c r="D227" s="46"/>
+      <c r="E227" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="F227" s="49" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="51"/>
+      <c r="D228" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="E228" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="F228" s="52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C229" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="D229" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="E229" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="F229" s="48" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="47"/>
+      <c r="D230" s="47"/>
+      <c r="E230" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="F230" s="50" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
-      <c r="F231" s="9"/>
+      <c r="C231" s="44"/>
+      <c r="D231" s="44"/>
+      <c r="E231" s="44"/>
+      <c r="F231" s="44"/>
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
-      <c r="F232" s="9"/>
+      <c r="C232" s="44"/>
+      <c r="D232" s="44"/>
+      <c r="E232" s="44"/>
+      <c r="F232" s="44"/>
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
+      <c r="C233" s="44"/>
+      <c r="D233" s="44"/>
+      <c r="E233" s="44"/>
+      <c r="F233" s="44"/>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
+      <c r="C234" s="44"/>
+      <c r="D234" s="44"/>
+      <c r="E234" s="44"/>
+      <c r="F234" s="44"/>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
-      <c r="F235" s="9"/>
+      <c r="C235" s="44"/>
+      <c r="D235" s="44"/>
+      <c r="E235" s="44"/>
+      <c r="F235" s="44"/>
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
+      <c r="C236" s="44"/>
+      <c r="D236" s="44"/>
+      <c r="E236" s="44"/>
+      <c r="F236" s="44"/>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="9"/>
+      <c r="C237" s="44"/>
+      <c r="D237" s="44"/>
+      <c r="E237" s="44"/>
+      <c r="F237" s="44"/>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
+      <c r="C238" s="44"/>
+      <c r="D238" s="44"/>
+      <c r="E238" s="44"/>
+      <c r="F238" s="44"/>
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
-      <c r="E239" s="9"/>
-      <c r="F239" s="9"/>
+      <c r="C239" s="44"/>
+      <c r="D239" s="44"/>
+      <c r="E239" s="44"/>
+      <c r="F239" s="44"/>
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="9"/>
+      <c r="C240" s="44"/>
+      <c r="D240" s="44"/>
+      <c r="E240" s="44"/>
+      <c r="F240" s="44"/>
     </row>
     <row r="241" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C241" s="9"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="9"/>
+      <c r="C241" s="44"/>
+      <c r="D241" s="44"/>
+      <c r="E241" s="44"/>
+      <c r="F241" s="44"/>
     </row>
     <row r="242" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C242" s="9"/>
-      <c r="D242" s="9"/>
-      <c r="E242" s="9"/>
-      <c r="F242" s="9"/>
+      <c r="C242" s="44"/>
+      <c r="D242" s="44"/>
+      <c r="E242" s="44"/>
+      <c r="F242" s="44"/>
     </row>
     <row r="243" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C243" s="9"/>
-      <c r="D243" s="9"/>
-      <c r="E243" s="9"/>
-      <c r="F243" s="9"/>
+      <c r="C243" s="44"/>
+      <c r="D243" s="44"/>
+      <c r="E243" s="44"/>
+      <c r="F243" s="44"/>
     </row>
     <row r="244" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C244" s="9"/>
-      <c r="D244" s="9"/>
-      <c r="E244" s="9"/>
-      <c r="F244" s="9"/>
+      <c r="C244" s="44"/>
+      <c r="D244" s="44"/>
+      <c r="E244" s="44"/>
+      <c r="F244" s="44"/>
     </row>
     <row r="245" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C245" s="9"/>
@@ -4514,8 +4766,55 @@
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
     </row>
+    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
+    </row>
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="46">
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C214:C220"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="C221:C228"/>
+    <mergeCell ref="D221:D223"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="D210:D213"/>
+    <mergeCell ref="C158:C213"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="D160:D181"/>
+    <mergeCell ref="D182:D202"/>
+    <mergeCell ref="D203:D207"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D110"/>
+    <mergeCell ref="C89:C143"/>
+    <mergeCell ref="D144:D153"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="C144:C157"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D117:D130"/>
+    <mergeCell ref="D131:D143"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D88"/>
+    <mergeCell ref="C54:C88"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="D63:D69"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C6:C24"/>
@@ -4527,31 +4826,6 @@
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="D33:D42"/>
     <mergeCell ref="C25:C42"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D88"/>
-    <mergeCell ref="C54:C88"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D54:D62"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D91:D110"/>
-    <mergeCell ref="C89:C143"/>
-    <mergeCell ref="D144:D153"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="C144:C157"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D117:D130"/>
-    <mergeCell ref="D131:D143"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="D210:D213"/>
-    <mergeCell ref="C158:C213"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="D160:D181"/>
-    <mergeCell ref="D182:D202"/>
-    <mergeCell ref="D203:D207"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
